--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail11 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>6.594592334885264e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.625802060242991</v>
+        <v>4.43547552605542e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.875033718885767</v>
+        <v>8.445129311476593e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.43547552605542e-07</v>
+        <v>-0.112199151077526</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.445129311476593e-07</v>
+        <v>0.275546172578759</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.112199151077526</v>
+        <v>0.08832345687082867</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.275546172578759</v>
+        <v>1.937830670636456</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08832345687082867</v>
+        <v>2.635271182249501</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.960052485951918</v>
+        <v>5.570383052917254</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.635271182249501</v>
+        <v>1.991224634313263e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.570383052917254</v>
+        <v>25070870704.89582</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.991224634313263e-18</v>
+        <v>4.819778958400348e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>25070870704.89582</v>
+        <v>1251.581372355749</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.819778958400348e-09</v>
+        <v>4.955813646758314e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1251.581372355749</v>
+        <v>12.72989332929705</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.955813646758314e-05</v>
+        <v>1.018051608739943</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.72989332929705</v>
+        <v>0.008030905141955582</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.018051608739943</v>
+        <v>6.622643935738409</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008030905141955582</v>
+        <v>0.9610152025597976</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.622643935738409</v>
+        <v>0.8872980885509182</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9610152025597976</v>
+        <v>131</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8872980885509182</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>11.66892773489173</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>5.304091028630026e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.95582262881383</v>
+        <v>3.476521094421484e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.022058794096669</v>
+        <v>8.379606609727698e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.476521094421484e-07</v>
+        <v>-0.1093333387800985</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.379606609727698e-07</v>
+        <v>0.2577828181564085</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1093333387800985</v>
+        <v>0.07824157697192829</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2577828181564085</v>
+        <v>1.931017963379429</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07824157697192829</v>
+        <v>2.940686857327565</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.955881070375333</v>
+        <v>5.429286299832961</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.940686857327565</v>
+        <v>1.318694602817707e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.429286299832961</v>
+        <v>38396416340.73484</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.318694602817707e-18</v>
+        <v>3.144378338679494e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>38396416340.73484</v>
+        <v>1944.131392702679</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.144378338679494e-09</v>
+        <v>6.322839194237764e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1944.131392702679</v>
+        <v>12.89297565075367</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.322839194237764e-05</v>
+        <v>1.022418834374781</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.89297565075367</v>
+        <v>0.01051038105458563</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.022418834374781</v>
+        <v>6.253459130542621</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01051038105458563</v>
+        <v>0.9628517642636586</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.253459130542621</v>
+        <v>0.7628789207587978</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9628517642636586</v>
+        <v>133</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7628789207587978</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>10.7875990787076</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>4.472281927938555e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.171321748463706</v>
+        <v>2.773552330153891e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.092459616551202</v>
+        <v>8.327826770629239e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.773552330153891e-07</v>
+        <v>-0.1034424496039588</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.327826770629239e-07</v>
+        <v>0.2338267350044222</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1034424496039588</v>
+        <v>0.06524898204063959</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2338267350044222</v>
+        <v>1.931318999511608</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06524898204063959</v>
+        <v>3.215213302288581</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.95754679859237</v>
+        <v>5.879722159773491</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.215213302288581</v>
+        <v>1.12438775476902e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.879722159773491</v>
+        <v>45201519304.52518</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.12438775476902e-18</v>
+        <v>2.676452068800859e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>45201519304.52518</v>
+        <v>2297.323590280018</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.676452068800859e-09</v>
+        <v>4.692255360892842e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2297.323590280018</v>
+        <v>12.42631579821666</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.692255360892842e-05</v>
+        <v>1.034161715670521</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.42631579821666</v>
+        <v>0.007245467488197707</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.034161715670521</v>
+        <v>6.758224003066642</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007245467488197707</v>
+        <v>0.9627140763419779</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.758224003066642</v>
+        <v>0.750969483338994</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9627140763419779</v>
+        <v>123</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.750969483338994</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>12.50212151009882</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>3.979027721091153e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4595264142935188</v>
+        <v>2.259130172739574e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8963927981801216</v>
+        <v>8.286110095849026e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.259130172739574e-07</v>
+        <v>-0.09469452927232876</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.286110095849026e-07</v>
+        <v>0.2062588144494845</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09469452927232876</v>
+        <v>0.05142193008053298</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2062588144494845</v>
+        <v>1.93646538542728</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05142193008053298</v>
+        <v>3.283334619671504</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.960222200060203</v>
+        <v>6.302773899180183</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.283334619671504</v>
+        <v>9.785122351308802e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.302773899180183</v>
+        <v>54963245561.46216</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.785122351308802e-19</v>
+        <v>2.212117244741039e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>54963245561.46216</v>
+        <v>2956.044719673574</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.212117244741039e-09</v>
+        <v>2.561896123401984e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2956.044719673574</v>
+        <v>11.2351481675587</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.561896123401984e-05</v>
+        <v>1.265526923102432</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.2351481675587</v>
+        <v>0.003233844440442098</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.265526923102432</v>
+        <v>7.546569548099223</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003233844440442098</v>
+        <v>0.9641811999804082</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.546569548099223</v>
+        <v>0.7161614091768174</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9641811999804082</v>
+        <v>113</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7161614091768174</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>15.13668892706801</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>3.722165679915958e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.02950309437448864</v>
+        <v>1.880204083557523e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2674003442315573</v>
+        <v>8.251772171909989e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.880204083557523e-07</v>
+        <v>-0.08424394578746312</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.251772171909989e-07</v>
+        <v>0.1788980000185086</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08424394578746312</v>
+        <v>0.039044763478251</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1788980000185086</v>
+        <v>1.937823515288126</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.039044763478251</v>
+        <v>3.119739626289594</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.960256792133439</v>
+        <v>6.688849984556358</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.119739626289594</v>
+        <v>7.369545144227792e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.688849984556358</v>
+        <v>72070069550.34773</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.369545144227792e-19</v>
+        <v>1.690009267984795e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>72070069550.34773</v>
+        <v>3827.811703313271</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.690009267984795e-09</v>
+        <v>1.010220078625504e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3827.811703313271</v>
+        <v>9.505729737039786</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1.010220078625504e-05</v>
+        <v>1.652090928936867</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.505729737039786</v>
+        <v>0.0009128237287401619</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.652090928936867</v>
+        <v>8.132919104076601</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0009128237287401619</v>
+        <v>0.9637734206835102</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.132919104076601</v>
+        <v>0.7647078571303233</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9637734206835102</v>
+        <v>107</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7647078571303233</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>17.1685243182186</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>3.61998883659136e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2811577241097638</v>
+        <v>1.597438317795312e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6994689574377064</v>
+        <v>8.22290496140131e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.597438317795312e-07</v>
+        <v>-0.07358903656504108</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.22290496140131e-07</v>
+        <v>0.154944144187181</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07358903656504108</v>
+        <v>0.02938860519798944</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.154944144187181</v>
+        <v>1.933750637935769</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02938860519798944</v>
+        <v>3.107556419885457</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.958463129780737</v>
+        <v>7.738267456209094</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.107556419885457</v>
+        <v>7.375313154368173e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.738267456209094</v>
+        <v>71925588258.30774</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.375313154368173e-19</v>
+        <v>1.689907353826885e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>71925588258.30774</v>
+        <v>3815.463560492763</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.689907353826885e-09</v>
+        <v>1.031750573263943e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3815.463560492763</v>
+        <v>6.031469372247452</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1.031750573263943e-05</v>
+        <v>1.431639759149262</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.031469372247452</v>
+        <v>0.000375336649164422</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.431639759149262</v>
+        <v>7.990670243938277</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.000375336649164422</v>
+        <v>0.9638181643030602</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.990670243938277</v>
+        <v>0.7799875425237819</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9638181643030602</v>
+        <v>77</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7799875425237819</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>15.84662448895486</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>3.612017913321127e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3712669201770784</v>
+        <v>1.384843526854015e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8165532383611995</v>
+        <v>8.198135581238829e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.384843526854015e-07</v>
+        <v>-0.06393088683796343</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.198135581238829e-07</v>
+        <v>0.136306684880307</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06393088683796343</v>
+        <v>0.02264683128265227</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.136306684880307</v>
+        <v>1.943593107525948</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02264683128265227</v>
+        <v>2.843042068183683</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.962709347134657</v>
+        <v>6.139131630481415</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.843042068183683</v>
+        <v>9.957645185140092e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.139131630481415</v>
+        <v>52212065191.62927</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.957645185140092e-19</v>
+        <v>2.334357160779295e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>52212065191.62927</v>
+        <v>2714.553406548185</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.334357160779295e-09</v>
+        <v>2.942184537375459e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2714.553406548185</v>
+        <v>7.236369313560546</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.942184537375459e-05</v>
+        <v>1.827833933237054</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.236369313560546</v>
+        <v>0.00154067613465075</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.827833933237054</v>
+        <v>7.183957024131489</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00154067613465075</v>
+        <v>0.9629558409089907</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.183957024131489</v>
+        <v>0.8063414636634116</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9629558409089907</v>
+        <v>35</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8063414636634116</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>11.69794211327234</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>3.657194851942462e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.3790003803687787</v>
+        <v>1.276209228832861e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8550248379045802</v>
+        <v>8.176459063058246e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.276209228832861e-07</v>
+        <v>-0.05578428745462716</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.176459063058246e-07</v>
+        <v>0.1230264240309046</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05578428745462716</v>
+        <v>0.01823641499576992</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1230264240309046</v>
+        <v>1.946073380397272</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01823641499576992</v>
+        <v>2.893396633757912</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.966164742212278</v>
+        <v>5.591265535105661</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.893396633757912</v>
+        <v>1.762880743693515e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.591265535105661</v>
+        <v>29633038700.67942</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.762880743693515e-18</v>
+        <v>4.116049101711984e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>29633038700.67942</v>
+        <v>1548.015519399195</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.116049101711984e-09</v>
+        <v>8.309411119973478e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1548.015519399195</v>
+        <v>9.497007522232357</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.309411119973478e-05</v>
+        <v>1.484301140787522</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.497007522232357</v>
+        <v>0.00749451979155009</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.484301140787522</v>
+        <v>5.794556443211246</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00749451979155009</v>
+        <v>0.964431558275413</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.794556443211246</v>
+        <v>0.8375808451326687</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.964431558275413</v>
+        <v>20</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8375808451326687</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>7.684083418647778</v>
       </c>
     </row>
@@ -5041,72 +4981,66 @@
         <v>3.729619005681506e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.3522395734925077</v>
+        <v>1.284894028794302e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8946578453915399</v>
+        <v>8.157152520889332e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.284894028794302e-07</v>
+        <v>-0.04906648451208118</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.157152520889332e-07</v>
+        <v>0.1138435749628178</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04906648451208118</v>
+        <v>0.0153615516803175</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1138435749628178</v>
+        <v>1.942694812498231</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0153615516803175</v>
+        <v>2.80951442587596</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.963445412048037</v>
+        <v>4.828579853742363</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.80951442587596</v>
+        <v>2.965828354240051e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.828579853742363</v>
+        <v>17112652343.65594</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.965828354240051e-18</v>
+        <v>7.109817211415049e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>17112652343.65594</v>
+        <v>868.5216878795079</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.109817211415049e-09</v>
+        <v>0.0001394129210973397</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>868.5216878795079</v>
+        <v>11.23439370156617</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001394129210973397</v>
+        <v>1.236607224010906</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.23439370156617</v>
+        <v>0.01759552808913826</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.236607224010906</v>
+        <v>4.580239099701549</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01759552808913826</v>
+        <v>0.9637419553411196</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.580239099701549</v>
+        <v>0.865790991154827</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9637419553411196</v>
+        <v>18</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.865790991154827</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>5.060131869361493</v>
       </c>
     </row>
@@ -5121,72 +5055,66 @@
         <v>3.814001322413908e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3128800872413376</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9494918330346236</v>
+        <v>8.139759600077055e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.04335397205776351</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.139759600077055e-07</v>
+        <v>0.1072227197310188</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04335397205776351</v>
+        <v>0.01337238148713402</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1072227197310188</v>
+        <v>1.938985549933167</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01337238148713402</v>
+        <v>2.468363407939583</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.960141733778424</v>
+        <v>4.610131757889161</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.468363407939583</v>
+        <v>5.190659608915314e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.610131757889161</v>
+        <v>9160161958.013168</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.190659608915314e-18</v>
+        <v>1.319342431808965e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>9160161958.013168</v>
+        <v>435.5408100725226</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.319342431808965e-08</v>
+        <v>0.0001754307654465519</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>435.5408100725226</v>
+        <v>12.59374998656262</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001754307654465519</v>
+        <v>1.109760574013275</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.59374998656262</v>
+        <v>0.02782376477012579</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.109760574013275</v>
+        <v>3.83635475370377</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02782376477012579</v>
+        <v>0.9638247750400346</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.83635475370377</v>
+        <v>0.9269917834738834</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9638247750400346</v>
+        <v>8</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9269917834738834</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>3.528584972684726</v>
       </c>
     </row>
@@ -5201,72 +5129,66 @@
         <v>3.900929513089079e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2695051272396278</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.016196957672031</v>
+        <v>8.12403378266301e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.03830070053155645</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.12403378266301e-07</v>
+        <v>0.1024279231578108</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03830070053155645</v>
+        <v>0.01195588308743508</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1024279231578108</v>
+        <v>1.929291847795312</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01195588308743508</v>
+        <v>2.256748999208473</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.952594959414719</v>
+        <v>4.292467012229311</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.256748999208473</v>
+        <v>8.773139937906007e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.292467012229311</v>
+        <v>5370502426.442432</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>8.773139937906007e-18</v>
+        <v>2.245302928766055e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>5370502426.442432</v>
+        <v>253.0375016794466</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.245302928766055e-08</v>
+        <v>0.0001943489178512793</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>253.0375016794466</v>
+        <v>13.5587632005836</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001943489178512793</v>
+        <v>1.040082981901944</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13.5587632005836</v>
+        <v>0.0357291166272731</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.040082981901944</v>
+        <v>3.459802664417886</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0357291166272731</v>
+        <v>0.9628094388820682</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.459802664417886</v>
+        <v>0.9731094360004749</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9628094388820682</v>
+        <v>8</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9731094360004749</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.715275445371883</v>
       </c>
     </row>
@@ -5281,72 +5203,66 @@
         <v>3.984087639937816e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2250803229284533</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.088590293822322</v>
+        <v>8.109847944014568e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.03378741293996596</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.109847944014568e-07</v>
+        <v>0.09911271934727568</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03378741293996596</v>
+        <v>0.01096325705668989</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09911271934727568</v>
+        <v>1.914957904947203</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01096325705668989</v>
+        <v>2.290961388036469</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.928531834321108</v>
+        <v>4.154099149007136</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.290961388036469</v>
+        <v>9.367318205664168e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.154099149007136</v>
+        <v>4994944436.865141</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.367318205664168e-18</v>
+        <v>2.410805600488962e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4994944436.865141</v>
+        <v>233.7096238723239</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.410805600488962e-08</v>
+        <v>0.0001955828235712252</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>233.7096238723239</v>
+        <v>14.35833163187744</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001955828235712252</v>
+        <v>0.9602057451325009</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>14.35833163187744</v>
+        <v>0.04032168490475302</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.9602057451325009</v>
+        <v>3.256118577571715</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.04032168490475302</v>
+        <v>0.9607206737172679</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.256118577571715</v>
+        <v>1.175457293625363</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9607206737172679</v>
+        <v>8</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.175457293625363</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>2.425411166292932</v>
       </c>
     </row>
@@ -5361,72 +5277,66 @@
         <v>4.060405295772953e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1810759717440676</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.160472255856962</v>
+        <v>8.097048048945471e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.02997003881893474</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.097048048945471e-07</v>
+        <v>0.0968299345958492</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02997003881893474</v>
+        <v>0.01027315935208648</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0968299345958492</v>
+        <v>1.909464152137288</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01027315935208648</v>
+        <v>2.318967617936637</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.922603137732248</v>
+        <v>4.19708940848335</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.318967617936637</v>
+        <v>9.176404464785964e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.19708940848335</v>
+        <v>5167934597.805413</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>9.176404464785964e-18</v>
+        <v>2.331214116388018e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>5167934597.805413</v>
+        <v>245.0792627767024</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.331214116388018e-08</v>
+        <v>0.0001802642660341232</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>245.0792627767024</v>
+        <v>11.71453579586383</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001802642660341232</v>
+        <v>1.175836061830488</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.71453579586383</v>
+        <v>0.02473772812433199</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.175836061830488</v>
+        <v>3.35627374022602</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02473772812433199</v>
+        <v>0.9608315840362383</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.35627374022602</v>
+        <v>1.288592060619794</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9608315840362383</v>
+        <v>8</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.288592060619794</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.653392681931952</v>
       </c>
     </row>
@@ -5441,72 +5351,66 @@
         <v>4.128533523281133e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1381014074880193</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.22768897022339</v>
+        <v>8.085480708773243e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.02655620358013831</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.085480708773243e-07</v>
+        <v>0.09545768661691631</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02655620358013831</v>
+        <v>0.00981646652644352</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09545768661691631</v>
+        <v>1.906678310180428</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00981646652644352</v>
+        <v>2.134750757368326</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.911962472088916</v>
+        <v>4.664929550108014</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.134750757368326</v>
+        <v>1.250727690217472e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.664929550108014</v>
+        <v>3902308546.082265</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.250727690217472e-17</v>
+        <v>3.095408225173577e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>3902308546.082265</v>
+        <v>190.4609626138917</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.095408225173577e-08</v>
+        <v>0.0001251109820173098</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>190.4609626138917</v>
+        <v>9.596260491497421</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001251109820173098</v>
+        <v>1.269630125225672</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.596260491497421</v>
+        <v>0.01152124706350213</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.269630125225672</v>
+        <v>3.652753075938509</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01152124706350213</v>
+        <v>0.9607765632823917</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.652753075938509</v>
+        <v>1.370958290181041</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9607765632823917</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.370958290181041</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.310594296387854</v>
       </c>
     </row>
@@ -5521,72 +5425,66 @@
         <v>4.186356302350179e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.09587405426132527</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.287764460455654</v>
+        <v>8.075146518353081e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.02310980526075572</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.075146518353081e-07</v>
+        <v>0.09530763955168001</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02310980526075572</v>
+        <v>0.009616299257527921</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09530763955168001</v>
+        <v>1.905925324463959</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.009616299257527921</v>
+        <v>1.868904784025002</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.90221261082198</v>
+        <v>4.88414376507141</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.868904784025002</v>
+        <v>2.715194615168757e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.88414376507141</v>
+        <v>1815693960.215014</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.715194615168757e-17</v>
+        <v>6.656533374805979e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1815693960.215014</v>
+        <v>89.51303069191223</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.656533374805979e-08</v>
+        <v>9.001905266856864e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>89.51303069191223</v>
+        <v>6.32384990813101</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.001905266856864e-05</v>
+        <v>1.426897588070678</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.32384990813101</v>
+        <v>0.003599958926199542</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.426897588070678</v>
+        <v>3.855577675306783</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.003599958926199542</v>
+        <v>0.9604670970810101</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.855577675306783</v>
+        <v>1.412317705213815</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9604670970810101</v>
+        <v>8</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.412317705213815</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.124528836882108</v>
       </c>
     </row>
@@ -5601,72 +5499,66 @@
         <v>4.231044402574645e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.05434744983545834</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.337751870346677</v>
+        <v>8.06619846932949e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.01930460043377255</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.06619846932949e-07</v>
+        <v>0.09706732110741689</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01930460043377255</v>
+        <v>0.009792249249761856</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09706732110741689</v>
+        <v>1.901515407254637</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009792249249761856</v>
+        <v>1.770998601323951</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.894421568540992</v>
+        <v>4.219242521943399</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.770998601323951</v>
+        <v>5.690607626221953e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.219242521943399</v>
+        <v>866779274.9992455</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.690607626221953e-17</v>
+        <v>1.394868293344379e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>866779274.9992455</v>
+        <v>42.75389426238787</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.394868293344379e-07</v>
+        <v>0.0001111212467460872</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>42.75389426238787</v>
+        <v>7.697450490927245</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001111212467460872</v>
+        <v>2.226115131995675</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.697450490927245</v>
+        <v>0.006584016550611195</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.226115131995675</v>
+        <v>3.607056350369475</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.006584016550611195</v>
+        <v>0.9593907498216346</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.607056350369475</v>
+        <v>1.452851801449264</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9593907498216346</v>
+        <v>8</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.452851801449264</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.582144733355656</v>
       </c>
     </row>
@@ -5681,72 +5573,66 @@
         <v>4.260272932765344e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.01505655619018882</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.373440609396418</v>
+        <v>8.058901433739214e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.01493823662921767</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.058901433739214e-07</v>
+        <v>0.1014749333999782</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.01493823662921767</v>
+        <v>0.01051595816138612</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1014749333999782</v>
+        <v>1.883190310248378</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01051595816138612</v>
+        <v>1.746258727662075</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.870489950108172</v>
+        <v>3.61835649806171</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.746258727662075</v>
+        <v>8.31320986976291e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.61835649806171</v>
+        <v>585161303.6796173</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.31320986976291e-17</v>
+        <v>2.049944965733887e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>585161303.6796173</v>
+        <v>28.46557377049463</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.049944965733887e-07</v>
+        <v>0.0001446002566981867</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>28.46557377049463</v>
+        <v>9.25041923361472</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001446002566981867</v>
+        <v>1.313661377128923</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.25041923361472</v>
+        <v>0.01237348098298672</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.313661377128923</v>
+        <v>3.069250263867238</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01237348098298672</v>
+        <v>0.9564955227951069</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.069250263867238</v>
+        <v>1.460657538223077</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9564955227951069</v>
+        <v>6</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.460657538223077</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.3251157154861187</v>
       </c>
     </row>
@@ -5761,72 +5647,66 @@
         <v>4.274669024901804e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.01839434594477847</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.392104787474562</v>
+        <v>8.053473449075173e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.01058934654448861</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8.053473449075173e-07</v>
+        <v>0.107149313072695</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.01058934654448861</v>
+        <v>0.01158897279319458</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.107149313072695</v>
+        <v>1.812381501448397</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01158897279319458</v>
+        <v>1.747110557185811</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.769053235058566</v>
+        <v>5.162331376930712</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.747110557185811</v>
+        <v>9.705744439186644e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.162331376930712</v>
+        <v>519752017.7316655</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.705744439186644e-17</v>
+        <v>2.248176049401122e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>519752017.7316655</v>
+        <v>26.21930766590036</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.248176049401122e-07</v>
+        <v>0.0001721999689724338</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>26.21930766590036</v>
+        <v>10.82130078148605</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001721999689724338</v>
+        <v>1.124846974065646</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.82130078148605</v>
+        <v>0.02016471118055876</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.124846974065646</v>
+        <v>2.557195333519293</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02016471118055876</v>
+        <v>0.9543964376458018</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.557195333519293</v>
+        <v>1.667687052942463</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9543964376458018</v>
+        <v>5</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.667687052942463</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2812126166554817</v>
       </c>
     </row>
@@ -5841,72 +5721,66 @@
         <v>4.279209423558182e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.0438913449378558</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.397406418957588</v>
+        <v>8.049664424261008e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.007406682649614118</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8.049664424261008e-07</v>
+        <v>0.1112041042144733</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.007406682649614118</v>
+        <v>0.01241813296997264</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1112041042144733</v>
+        <v>1.790842046797898</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01241813296997264</v>
+        <v>1.73490899185839</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.745255420710024</v>
+        <v>4.452475542338375</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.73490899185839</v>
+        <v>1.402751372150642e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.452475542338375</v>
+        <v>339003421.8453619</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.402751372150642e-16</v>
+        <v>3.400552907820312e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>339003421.8453619</v>
+        <v>16.12088448541804</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.400552907820312e-07</v>
+        <v>0.0001728881792609855</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>16.12088448541804</v>
+        <v>9.141561945954809</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001728881792609855</v>
+        <v>1.33440903441331</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.141561945954809</v>
+        <v>0.0144479461296</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.33440903441331</v>
+        <v>2.759849003645281</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0144479461296</v>
+        <v>0.9515293777094129</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.759849003645281</v>
+        <v>1.690996561938589</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9515293777094129</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.690996561938589</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2126103390288763</v>
       </c>
     </row>
@@ -5921,72 +5795,66 @@
         <v>4.278578879306802e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.06250271664189581</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.395140454639626</v>
+        <v>8.046967338258225e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.005261727885340711</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8.046967338258225e-07</v>
+        <v>0.1139793182077548</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.005261727885340711</v>
+        <v>0.01301574265796325</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1139793182077548</v>
+        <v>1.762279969629956</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01301574265796325</v>
+        <v>1.754816141750716</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.704483595993261</v>
+        <v>4.347694849660742</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.754816141750716</v>
+        <v>1.471179544244335e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.347694849660742</v>
+        <v>325569189.5007538</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.471179544244335e-16</v>
+        <v>3.522999348007939e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>325569189.5007538</v>
+        <v>15.59381129563837</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.522999348007939e-07</v>
+        <v>0.0001544604605064694</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>15.59381129563837</v>
+        <v>8.512247712323253</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001544604605064694</v>
+        <v>1.367578044144651</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.512247712323253</v>
+        <v>0.01119195182551407</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.367578044144651</v>
+        <v>2.918060545145044</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01119195182551407</v>
+        <v>0.9522532858437865</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.918060545145044</v>
+        <v>1.749711110782243</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9522532858437865</v>
+        <v>6</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.749711110782243</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1905926423416495</v>
       </c>
     </row>
@@ -6001,72 +5869,66 @@
         <v>4.275342313617759e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.07513438866408875</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.389241366742768</v>
+        <v>8.045108713727755e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.003402016488775904</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.045108713727755e-07</v>
+        <v>0.1167234585304308</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.003402016488775904</v>
+        <v>0.01363145162217985</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1167234585304308</v>
+        <v>1.75434779862512</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01363145162217985</v>
+        <v>1.785303198729399</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.69023560100307</v>
+        <v>4.344072395003916</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.785303198729399</v>
+        <v>1.473634154899401e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.344072395003916</v>
+        <v>329856822.4084449</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.473634154899401e-16</v>
+        <v>3.47245796580795e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>329856822.4084449</v>
+        <v>16.03395353609568</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.47245796580795e-07</v>
+        <v>0.0001406303667226936</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>16.03395353609568</v>
+        <v>8.684724011400251</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001406303667226936</v>
+        <v>1.284158672110308</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.684724011400251</v>
+        <v>0.01060696541306459</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.284158672110308</v>
+        <v>2.893370766741373</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01060696541306459</v>
+        <v>0.9516191816904285</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.893370766741373</v>
+        <v>1.746664433909664</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9516191816904285</v>
+        <v>6</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.746664433909664</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1984101252405029</v>
       </c>
     </row>
@@ -6081,72 +5943,66 @@
         <v>4.271567443315237e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.08189124709719547</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.383243009178591</v>
+        <v>8.044025843601956e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.001641873149490468</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>8.044025843601956e-07</v>
+        <v>0.1198939908311901</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.001641873149490468</v>
+        <v>0.01436996034339412</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1198939908311901</v>
+        <v>1.728900829276796</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01436996034339412</v>
+        <v>1.793930534577102</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.664528478522513</v>
+        <v>4.225203542180441</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.793930534577102</v>
+        <v>1.55771684686019e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.225203542180441</v>
+        <v>312534690.7742466</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.55771684686019e-16</v>
+        <v>3.627948576114096e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>312534690.7742466</v>
+        <v>15.21545617029961</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.627948576114096e-07</v>
+        <v>0.0001412068578048474</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>15.21545617029961</v>
+        <v>8.877273851269701</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001412068578048474</v>
+        <v>1.279140017304607</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.877273851269701</v>
+        <v>0.01112794636960497</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.279140017304607</v>
+        <v>2.788538798456249</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01112794636960497</v>
+        <v>0.951925439933036</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.788538798456249</v>
+        <v>1.740029666933671</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.951925439933036</v>
+        <v>6</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.740029666933671</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2027831018146553</v>
       </c>
     </row>
@@ -6161,72 +6017,66 @@
         <v>4.26883055986052e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.08422365579916838</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.379634697616496</v>
+        <v>8.043541046949493e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.0009307256919329076</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>8.043541046949493e-07</v>
+        <v>0.1214114091690687</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0009307256919329076</v>
+        <v>0.01473305069565666</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1214114091690687</v>
+        <v>1.668513910278522</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01473305069565666</v>
+        <v>1.617771157744419</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.588544785791742</v>
+        <v>4.932266636708552</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.617771157744419</v>
+        <v>2.188615158283125e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.932266636708552</v>
+        <v>252283023.0051974</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.188615158283125e-16</v>
+        <v>4.420417187323749e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>252283023.0051974</v>
+        <v>13.92981842575263</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.420417187323749e-07</v>
+        <v>0.0001483457781340016</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>13.92981842575263</v>
+        <v>9.074206099142138</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001483457781340016</v>
+        <v>1.346704273426712</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.074206099142138</v>
+        <v>0.01221497180893075</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.346704273426712</v>
+        <v>2.698958672023985</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01221497180893075</v>
+        <v>0.948306740171911</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.698958672023985</v>
+        <v>1.775520133673819</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.948306740171911</v>
+        <v>9</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.775520133673819</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2065312862496965</v>
       </c>
     </row>
@@ -6241,72 +6091,66 @@
         <v>4.262757211556851e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.08575694309786606</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.374233256402184</v>
+        <v>8.04282911733877e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.002696580826913709</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>8.04282911733877e-07</v>
+        <v>0.1180417785451578</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.002696580826913709</v>
+        <v>0.01393396215036263</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1180417785451578</v>
+        <v>1.657216186073348</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01393396215036263</v>
+        <v>1.574267504814671</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.571734594972638</v>
+        <v>4.160188315472759</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.574267504814671</v>
+        <v>3.712974037285466e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.160188315472759</v>
+        <v>151478336.0977084</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.712974037285466e-16</v>
+        <v>7.351065590875833e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>151478336.0977084</v>
+        <v>8.519673752532885</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.351065590875833e-07</v>
+        <v>0.0001550592427825228</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>8.519673752532885</v>
+        <v>9.207550205873202</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001550592427825228</v>
+        <v>1.504061006231903</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.207550205873202</v>
+        <v>0.01314576456574139</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.504061006231903</v>
+        <v>2.778047309520051</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01314576456574139</v>
+        <v>0.9484980129492517</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.778047309520051</v>
+        <v>1.796278512256067</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9484980129492517</v>
+        <v>9</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.796278512256067</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2171370720749491</v>
       </c>
     </row>
@@ -6321,72 +6165,66 @@
         <v>4.243858245002882e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.08467228419945282</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.365134209213866</v>
+        <v>8.041072688086746e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.005520051339597129</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>8.041072688086746e-07</v>
+        <v>0.1138906913335478</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.005520051339597129</v>
+        <v>0.01299789435990189</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1138906913335478</v>
+        <v>1.652315141040928</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01299789435990189</v>
+        <v>1.560954674785981</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.565101055344633</v>
+        <v>3.779564739242463</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.560954674785981</v>
+        <v>4.498464679670506e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.779564739242463</v>
+        <v>124285041.3752258</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.498464679670506e-16</v>
+        <v>8.933473050971596e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>124285041.3752258</v>
+        <v>6.948675605106335</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>8.933473050971596e-07</v>
+        <v>0.0001461574807631144</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>6.948675605106335</v>
+        <v>8.800047656867724</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001461574807631144</v>
+        <v>1.526150197141455</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.800047656867724</v>
+        <v>0.01131855790180353</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.526150197141455</v>
+        <v>2.891088764006288</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01131855790180353</v>
+        <v>0.9484510703596969</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.891088764006288</v>
+        <v>1.810728427531277</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9484510703596969</v>
+        <v>9</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.810728427531277</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.207013122984849</v>
       </c>
     </row>
@@ -6401,72 +6239,66 @@
         <v>4.208732205884509e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.07574737712074137</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.360776530457395</v>
+        <v>8.03822355747577e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.007809046673580502</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8.03822355747577e-07</v>
+        <v>0.112559982345326</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.007809046673580502</v>
+        <v>0.01272972999927233</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.112559982345326</v>
+        <v>1.656862534874389</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01272972999927233</v>
+        <v>1.552632369557558</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.565335156761069</v>
+        <v>3.639432554071218</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.552632369557558</v>
+        <v>4.851550332498258e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.639432554071218</v>
+        <v>116591881.9653442</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.851550332498258e-16</v>
+        <v>9.534865199788544e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>116591881.9653442</v>
+        <v>6.595035936369853</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.534865199788544e-07</v>
+        <v>0.0001412052650052906</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6.595035936369853</v>
+        <v>8.794245513497721</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001412052650052906</v>
+        <v>1.34814337613385</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.794245513497721</v>
+        <v>0.01092063927516626</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.34814337613385</v>
+        <v>2.842268483788397</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01092063927516626</v>
+        <v>0.948910914499336</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.842268483788397</v>
+        <v>1.816624878871366</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.948910914499336</v>
+        <v>9</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.816624878871366</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1975651963152086</v>
       </c>
     </row>
@@ -6481,72 +6313,66 @@
         <v>4.160575698608847e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.05774664943385565</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.367164127383732</v>
+        <v>8.034587419034502e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.009461295319907382</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>8.034587419034502e-07</v>
+        <v>0.1131254982892386</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.009461295319907382</v>
+        <v>0.01288666685082052</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1131254982892386</v>
+        <v>1.660681239827412</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01288666685082052</v>
+        <v>1.615214296687989</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.567269552824471</v>
+        <v>3.622306256401975</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.615214296687989</v>
+        <v>4.897535134590463e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.622306256401975</v>
+        <v>116538821.2070856</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.897535134590463e-16</v>
+        <v>9.534331947303663e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>116538821.2070856</v>
+        <v>6.651487848803347</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.534331947303663e-07</v>
+        <v>0.0001405304875526751</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6.651487848803347</v>
+        <v>9.061837743902762</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001405304875526751</v>
+        <v>1.307684498020115</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.061837743902762</v>
+        <v>0.01153992845661808</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.307684498020115</v>
+        <v>2.776073661515475</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01153992845661808</v>
+        <v>0.9499668435332844</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.776073661515475</v>
+        <v>1.815986644746043</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9499668435332844</v>
+        <v>9</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.815986644746043</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1969333691878937</v>
       </c>
     </row>
@@ -6561,72 +6387,66 @@
         <v>4.10359405569199e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.03196180124999445</v>
+        <v>1.286710318570329e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.384903177418956</v>
+        <v>8.03043954685452e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.286710318570329e-07</v>
+        <v>-0.01050483150140592</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>8.03043954685452e-07</v>
+        <v>0.1145645829931059</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.01050483150140592</v>
+        <v>0.01323534690651085</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1145645829931059</v>
+        <v>1.664898560387004</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01323534690651085</v>
+        <v>1.595251129500092</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.572765571291621</v>
+        <v>3.624976428829509</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.595251129500092</v>
+        <v>4.890322703197779e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.624976428829509</v>
+        <v>118133906.7113508</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.890322703197779e-16</v>
+        <v>9.399462010312264e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>118133906.7113508</v>
+        <v>6.824748490696669</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.399462010312264e-07</v>
+        <v>0.0001393413156837285</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>6.824748490696669</v>
+        <v>8.946088908538275</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001393413156837285</v>
+        <v>1.320141357806849</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.946088908538275</v>
+        <v>0.01115183478933166</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.320141357806849</v>
+        <v>2.806469764397138</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01115183478933166</v>
+        <v>0.950714416101873</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.806469764397138</v>
+        <v>1.814775893758737</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.950714416101873</v>
+        <v>9</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.814775893758737</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1985033952074548</v>
       </c>
     </row>
@@ -6641,72 +6461,66 @@
         <v>4.042517646515453e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.001330354600489808</v>
+        <v>1.278451652582013e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.410435433163901</v>
+        <v>8.026050760198893e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.278451652582013e-07</v>
+        <v>-0.01096146042308769</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>8.026050760198893e-07</v>
+        <v>0.1163311089935369</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.01096146042308769</v>
+        <v>0.01365287183410865</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1163311089935369</v>
+        <v>1.656985392565665</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01365287183410865</v>
+        <v>1.529730707116796</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.568128008773582</v>
+        <v>3.67621116398082</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.529730707116796</v>
+        <v>4.754961370417372e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.67621116398082</v>
+        <v>117607788.9247561</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.754961370417372e-16</v>
+        <v>9.37921780952027e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>117607788.9247561</v>
+        <v>6.576868572635967</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.37921780952027e-07</v>
+        <v>0.0001359361672309166</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>6.576868572635967</v>
+        <v>8.138751240022163</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001359361672309166</v>
+        <v>1.392777047839823</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.138751240022163</v>
+        <v>0.009004312721449198</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.392777047839823</v>
+        <v>2.97108352964482</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.009004312721449198</v>
+        <v>0.9514059090010762</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.97108352964482</v>
+        <v>1.796203897505174</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9514059090010762</v>
+        <v>9</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.796203897505174</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1965446006226614</v>
       </c>
     </row>
@@ -6721,72 +6535,66 @@
         <v>3.981590021672225e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.03062073521831001</v>
+        <v>1.256529208188646e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.43820405608674</v>
+        <v>8.021648546520656e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.256529208188646e-07</v>
+        <v>-0.01091251610116714</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8.021648546520656e-07</v>
+        <v>0.1180390346805718</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.01091251610116714</v>
+        <v>0.01405192862675591</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1180390346805718</v>
+        <v>1.654507332920432</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01405192862675591</v>
+        <v>1.493005413360357</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.569475478560282</v>
+        <v>3.828554622105271</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.493005413360357</v>
+        <v>4.384077240265262e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.828554622105271</v>
+        <v>127448653.6623712</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.384077240265262e-16</v>
+        <v>8.642019923597338e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>127448653.6623712</v>
+        <v>7.121126508635361</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>8.642019923597338e-07</v>
+        <v>0.0001386077893474789</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.121126508635361</v>
+        <v>7.761009816312745</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001386077893474789</v>
+        <v>1.579494709175844</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.761009816312745</v>
+        <v>0.008348800866825991</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.579494709175844</v>
+        <v>3.030393434821955</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.008348800866825991</v>
+        <v>0.9508589247941343</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.030393434821955</v>
+        <v>1.797553312850565</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9508589247941343</v>
+        <v>20</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.797553312850565</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1910509079416722</v>
       </c>
     </row>
@@ -6801,72 +6609,66 @@
         <v>3.924027928524528e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.06125906301701056</v>
+        <v>1.227393114112107e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.464251596704865</v>
+        <v>8.017429349436241e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.227393114112107e-07</v>
+        <v>-0.01035796752629758</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>8.017429349436241e-07</v>
+        <v>0.1195203453482396</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.01035796752629758</v>
+        <v>0.01439196781774875</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1195203453482396</v>
+        <v>1.652835165167683</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01439196781774875</v>
+        <v>1.465628937943627</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.570501038932334</v>
+        <v>4.149770469184783</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.465628937943627</v>
+        <v>3.73164000781849e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.149770469184783</v>
+        <v>149899783.5360344</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.73164000781849e-16</v>
+        <v>7.348343821792055e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>149899783.5360344</v>
+        <v>8.384974612413123</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>7.348343821792055e-07</v>
+        <v>0.0001386514980269346</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>8.384974612413123</v>
+        <v>8.54115202140064</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001386514980269346</v>
+        <v>1.261600062785877</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.54115202140064</v>
+        <v>0.0101148039572527</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.261600062785877</v>
+        <v>2.927434044342743</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0101148039572527</v>
+        <v>0.9520360889459105</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.927434044342743</v>
+        <v>1.814766012291362</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9520360889459105</v>
+        <v>20</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.814766012291362</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1904176434620853</v>
       </c>
     </row>
@@ -7243,7 +7045,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.424040309021194</v>
+        <v>1.377813078969409</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.300377826469367</v>
@@ -7332,7 +7134,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.433691144173721</v>
+        <v>1.380130736697242</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.238066370499744</v>
@@ -7421,7 +7223,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.439558498886463</v>
+        <v>1.384315460439822</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.342739413161322</v>
@@ -7510,7 +7312,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.445632308349285</v>
+        <v>1.388620509102339</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.384047890423589</v>
@@ -7599,7 +7401,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46025379894446</v>
+        <v>1.399876683414416</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.372908686848294</v>
@@ -7688,7 +7490,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.454173347482642</v>
+        <v>1.398378551232915</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.307758421344451</v>
@@ -7777,7 +7579,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.50363413036138</v>
+        <v>1.445235111043796</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.178102294380994</v>
@@ -7866,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536030007929055</v>
+        <v>1.468961310727452</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.034169009641729</v>
@@ -7955,7 +7757,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.581762664809653</v>
+        <v>1.506467692671573</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.892420482296353</v>
@@ -8044,7 +7846,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600030931494673</v>
+        <v>1.52719208390938</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.880325242446324</v>
@@ -8133,7 +7935,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592308225285162</v>
+        <v>1.520578962274179</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.006239229478922</v>
@@ -8222,7 +8024,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.592450595715496</v>
+        <v>1.524757968083982</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.846557915622115</v>
@@ -8311,7 +8113,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.59881743007189</v>
+        <v>1.53208428857207</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.890876855813177</v>
@@ -8400,7 +8202,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.60949373426216</v>
+        <v>1.546539975659602</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.810010553570832</v>
@@ -8489,7 +8291,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.638996032913162</v>
+        <v>1.563943995391408</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.812268971135303</v>
@@ -8578,7 +8380,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.644935522298081</v>
+        <v>1.567139803176215</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.990636844398851</v>
@@ -8667,7 +8469,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.649972637662023</v>
+        <v>1.584620926333112</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.093687126833029</v>
@@ -8756,7 +8558,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.667190503892084</v>
+        <v>1.600152127633744</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.776931488584593</v>
@@ -8845,7 +8647,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675873665226726</v>
+        <v>1.610915720250034</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.998731119296521</v>
@@ -8934,7 +8736,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.677001368764932</v>
+        <v>1.610377757116824</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.926158785194192</v>
@@ -9023,7 +8825,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.679781948025407</v>
+        <v>1.615600993409382</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.33593056370901</v>
@@ -9112,7 +8914,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.676778392590075</v>
+        <v>1.610561253030068</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.351838255142303</v>
@@ -9201,7 +9003,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.660448100622428</v>
+        <v>1.600942554184699</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.372489319166309</v>
@@ -9290,7 +9092,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.654172396126555</v>
+        <v>1.596385245996106</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.357229509797407</v>
@@ -9379,7 +9181,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.648952947604154</v>
+        <v>1.58957841215113</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.357221960606793</v>
@@ -9468,7 +9270,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.664241266002509</v>
+        <v>1.604589270738123</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.231683843655752</v>
@@ -9557,7 +9359,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.683365776103385</v>
+        <v>1.621504461395714</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.216045832436703</v>
@@ -9646,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694120852034423</v>
+        <v>1.629800797132596</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.190374852254175</v>
@@ -9735,7 +9537,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.692003150992109</v>
+        <v>1.632236527236411</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.189260524618145</v>
@@ -9824,7 +9626,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.687446230503599</v>
+        <v>1.634085671539609</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.190480529169737</v>
@@ -9913,7 +9715,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.69213436831119</v>
+        <v>1.6453892803291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.11766806817513</v>
@@ -10002,7 +9804,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.687010494686003</v>
+        <v>1.639776994880207</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.209280930797894</v>
@@ -10091,7 +9893,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.690385661635738</v>
+        <v>1.642925899758618</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.137974245109942</v>
@@ -10180,7 +9982,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.690506186535138</v>
+        <v>1.643893567627842</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.160496659685522</v>
@@ -10269,7 +10071,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686368152916825</v>
+        <v>1.639536235658968</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.089587164193977</v>
@@ -10358,7 +10160,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.725750206172163</v>
+        <v>1.67174287406813</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.867251635388606</v>
@@ -10447,7 +10249,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.713568161921706</v>
+        <v>1.660137529426152</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.88167282469971</v>
@@ -10536,7 +10338,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.744240067491503</v>
+        <v>1.681931878353696</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.784613273188574</v>
@@ -10625,7 +10427,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.74336717894605</v>
+        <v>1.685196859621483</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.308910424591914</v>
@@ -10714,7 +10516,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.738404793801276</v>
+        <v>1.673852598792405</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.316226475207578</v>
@@ -10803,7 +10605,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733052781903353</v>
+        <v>1.670431918726165</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.691544291706847</v>
@@ -10892,7 +10694,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.728221299496395</v>
+        <v>1.665310640077834</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.150225261586129</v>
@@ -10981,7 +10783,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.723995751303952</v>
+        <v>1.662276166855744</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.387633131815659</v>
@@ -11070,7 +10872,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.726402929378722</v>
+        <v>1.66482897083925</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.39035158398672</v>
@@ -11159,7 +10961,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.714191404646592</v>
+        <v>1.656611739992139</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.043007090241136</v>
@@ -11248,7 +11050,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.7045986896458</v>
+        <v>1.647231038191754</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.128898264331405</v>
@@ -11337,7 +11139,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.693378958357213</v>
+        <v>1.639598282839337</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.613094242304389</v>
@@ -11426,7 +11228,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.67655519548864</v>
+        <v>1.628565734670085</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.278850157860658</v>
@@ -11515,7 +11317,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.673699252104889</v>
+        <v>1.619883152320237</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.537438076907052</v>
@@ -11604,7 +11406,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.663427840876579</v>
+        <v>1.607699449137853</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.553253091413493</v>
@@ -11693,7 +11495,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.66119995627015</v>
+        <v>1.603956057481742</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.33676208886567</v>
@@ -11782,7 +11584,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.665325849852271</v>
+        <v>1.604255055160084</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.335071138833845</v>
@@ -11871,7 +11673,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.642229434231152</v>
+        <v>1.577611334186556</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.882580322592803</v>
@@ -11960,7 +11762,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.650110749781668</v>
+        <v>1.581410023814654</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.411509267084731</v>
@@ -12049,7 +11851,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.654297226796593</v>
+        <v>1.58708186201782</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.241246344775051</v>
@@ -12138,7 +11940,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.649778424126223</v>
+        <v>1.584440775505086</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.965987522695328</v>
@@ -12227,7 +12029,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.651071069337999</v>
+        <v>1.578548621812185</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.118888508540391</v>
@@ -12316,7 +12118,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.646007515149557</v>
+        <v>1.575299608364373</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.212423776832963</v>
@@ -12405,7 +12207,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.641039038174001</v>
+        <v>1.568004912122005</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.420524604470758</v>
@@ -12494,7 +12296,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.64989719595916</v>
+        <v>1.573563652847273</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.279442219237804</v>
@@ -12583,7 +12385,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.656209793524792</v>
+        <v>1.575385252078791</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.271684613207964</v>
@@ -12672,7 +12474,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.652437428267279</v>
+        <v>1.574636931422335</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.196054402454622</v>
@@ -12761,7 +12563,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.657255921773511</v>
+        <v>1.577831322064315</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.347160787128088</v>
@@ -12850,7 +12652,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.660355595510516</v>
+        <v>1.585995370212144</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.299119377026208</v>
@@ -12939,7 +12741,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.676988340668096</v>
+        <v>1.605355146861545</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.124158932035769</v>
@@ -13028,7 +12830,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.652446540028015</v>
+        <v>1.58494880294286</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.61116126350215</v>
@@ -13117,7 +12919,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.641101307774132</v>
+        <v>1.581556443052798</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.746068400352726</v>
@@ -13206,7 +13008,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.633541345601419</v>
+        <v>1.580752275520925</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.879156705918689</v>
@@ -13295,7 +13097,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.616079752462279</v>
+        <v>1.571061923304452</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.702637818971259</v>
@@ -13384,7 +13186,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.616795864239252</v>
+        <v>1.562389694931024</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.741930759755968</v>
@@ -13473,7 +13275,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.573379055190369</v>
+        <v>1.524426169919308</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.513287536921868</v>
@@ -13562,7 +13364,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.551140218870697</v>
+        <v>1.514672660377436</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.529395341598702</v>
@@ -13651,7 +13453,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.541987573164086</v>
+        <v>1.505453722767657</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.624205865599374</v>
@@ -13740,7 +13542,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.535134285201158</v>
+        <v>1.499201960139211</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.549507195697593</v>
@@ -13829,7 +13631,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.534184967952143</v>
+        <v>1.499145211160475</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.557832760636367</v>
@@ -13918,7 +13720,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.518056498895334</v>
+        <v>1.486601956407826</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.635583223406895</v>
@@ -14204,7 +14006,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.432905568426899</v>
+        <v>1.406584527324138</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.26564536544491</v>
@@ -14293,7 +14095,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.4377610541149</v>
+        <v>1.408074557295558</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.26016045973718</v>
@@ -14382,7 +14184,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.444736272272977</v>
+        <v>1.414306204168527</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.305026605720808</v>
@@ -14471,7 +14273,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.448923369603722</v>
+        <v>1.416687123109359</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.308186540651679</v>
@@ -14560,7 +14362,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.464779296783709</v>
+        <v>1.431597474762712</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.380656096016152</v>
@@ -14649,7 +14451,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.452923781521881</v>
+        <v>1.424685434220114</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.357260831239724</v>
@@ -14738,7 +14540,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.506816197308712</v>
+        <v>1.476507549789323</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.377284952588608</v>
@@ -14827,7 +14629,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.537139173919559</v>
+        <v>1.502467366850115</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.030994332613986</v>
@@ -14916,7 +14718,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.587962053542212</v>
+        <v>1.546364738100666</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.505447966623664</v>
@@ -15005,7 +14807,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.614259727404302</v>
+        <v>1.5744324211134</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.568135173783329</v>
@@ -15094,7 +14896,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607007195932961</v>
+        <v>1.565267910255812</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.557512155451235</v>
@@ -15183,7 +14985,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.607844648269721</v>
+        <v>1.567085792735084</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.499461857730148</v>
@@ -15272,7 +15074,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609356171460432</v>
+        <v>1.570227847711603</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.576803730226728</v>
@@ -15361,7 +15163,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622732773954121</v>
+        <v>1.584098037522962</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.299916448864161</v>
@@ -15450,7 +15252,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.673728269563499</v>
+        <v>1.618681021683176</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.861747765597466</v>
@@ -15539,7 +15341,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.683209995661762</v>
+        <v>1.620401826341461</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.880920050735529</v>
@@ -15628,7 +15430,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.681905212237894</v>
+        <v>1.630662008951784</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.005750880093387</v>
@@ -15717,7 +15519,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.692677429475157</v>
+        <v>1.640195602956128</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.828562340739355</v>
@@ -15806,7 +15608,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.699691914021679</v>
+        <v>1.647316329294538</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.008088574826913</v>
@@ -15895,7 +15697,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.697431429646689</v>
+        <v>1.642997519402371</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.8628738106749</v>
@@ -15984,7 +15786,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.688762403280704</v>
+        <v>1.639822348547685</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.37836351447489</v>
@@ -16073,7 +15875,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.673044331157945</v>
+        <v>1.628807127481235</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.399682205369341</v>
@@ -16162,7 +15964,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.660859525999734</v>
+        <v>1.621319397394581</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.394760658894826</v>
@@ -16251,7 +16053,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.650326585173105</v>
+        <v>1.613540082114992</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.360558493715131</v>
@@ -16340,7 +16142,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.644510099183979</v>
+        <v>1.607380090685374</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.336911338763561</v>
@@ -16429,7 +16231,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.650137648279788</v>
+        <v>1.614797370932141</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.361918863116999</v>
@@ -16518,7 +16320,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.646037269136729</v>
+        <v>1.615475888030646</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.342556370114842</v>
@@ -16607,7 +16409,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.657726772082778</v>
+        <v>1.625758733194403</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.324322222320427</v>
@@ -16696,7 +16498,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.649793226167737</v>
+        <v>1.625135385078411</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.261718026688153</v>
@@ -16785,7 +16587,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.643404967889679</v>
+        <v>1.629177213823437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.204794310350996</v>
@@ -16874,7 +16676,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.64930329241963</v>
+        <v>1.642713788492843</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.171069731888987</v>
@@ -16963,7 +16765,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.641317975252201</v>
+        <v>1.638956982581326</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.111707549194998</v>
@@ -17052,7 +16854,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644737852967959</v>
+        <v>1.64034513694346</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.134719396783421</v>
@@ -17141,7 +16943,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.644430169388868</v>
+        <v>1.641687567963283</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.087234726618465</v>
@@ -17230,7 +17032,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.642972390140575</v>
+        <v>1.641062139422245</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.124252308054864</v>
@@ -17319,7 +17121,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.686077974187682</v>
+        <v>1.679028130157839</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.145511821115294</v>
@@ -17408,7 +17210,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.704411583292202</v>
+        <v>1.69070997160071</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.955857134885622</v>
@@ -17497,7 +17299,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.717338271909154</v>
+        <v>1.696324786648973</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.993651757708245</v>
@@ -17586,7 +17388,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.720243108259709</v>
+        <v>1.699734320570759</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.015511378956857</v>
@@ -17675,7 +17477,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.705728652553572</v>
+        <v>1.683890251905422</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.907479861510534</v>
@@ -17764,7 +17566,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.715395209674956</v>
+        <v>1.686588166237423</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.648161378853768</v>
@@ -17853,7 +17655,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.734259646404029</v>
+        <v>1.699539960260626</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.301870151065095</v>
@@ -17942,7 +17744,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.725708054922905</v>
+        <v>1.690071895278325</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.400853961057507</v>
@@ -18031,7 +17833,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.728348050968159</v>
+        <v>1.69119241035573</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.788489609065894</v>
@@ -18120,7 +17922,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696599174113333</v>
+        <v>1.665867187578074</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.197096337933165</v>
@@ -18209,7 +18011,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.681856387432088</v>
+        <v>1.654753777130508</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.930670206319246</v>
@@ -18298,7 +18100,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.689951877440572</v>
+        <v>1.660256070872034</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.65487775061342</v>
@@ -18387,7 +18189,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.681747353925609</v>
+        <v>1.657249704165796</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.278374893181827</v>
@@ -18476,7 +18278,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.682542366581031</v>
+        <v>1.65814937625437</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.597812434495146</v>
@@ -18565,7 +18367,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.674502136368459</v>
+        <v>1.64817870676303</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.558858404966673</v>
@@ -18654,7 +18456,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.680363161559074</v>
+        <v>1.653952870864943</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.489504113559845</v>
@@ -18743,7 +18545,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.664559231917772</v>
+        <v>1.639347006264283</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.333098299833167</v>
@@ -18832,7 +18634,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.636052827361857</v>
+        <v>1.614438878515374</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.948938923753188</v>
@@ -18921,7 +18723,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641287158663461</v>
+        <v>1.615523622649677</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.014759164608429</v>
@@ -19010,7 +18812,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.647874104145811</v>
+        <v>1.623163048750472</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.116186561934743</v>
@@ -19099,7 +18901,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.647055271619361</v>
+        <v>1.623731528596268</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.103034059470072</v>
@@ -19188,7 +18990,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.639422540298852</v>
+        <v>1.617720006252643</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.269891741269753</v>
@@ -19277,7 +19079,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.645612938838572</v>
+        <v>1.622267905536887</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.303777316617429</v>
@@ -19366,7 +19168,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.628846526269541</v>
+        <v>1.606569411899507</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.76263817741759</v>
@@ -19455,7 +19257,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.640708193205534</v>
+        <v>1.615205173027133</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.265723102444856</v>
@@ -19544,7 +19346,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.648783817358175</v>
+        <v>1.615033824689975</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.0974131302649</v>
@@ -19633,7 +19435,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.642416002818823</v>
+        <v>1.608288674226319</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.266207941089483</v>
@@ -19722,7 +19524,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.639547181239269</v>
+        <v>1.603393704323244</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.216870292266195</v>
@@ -19811,7 +19613,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.637658173637774</v>
+        <v>1.601973914123788</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.066475387606957</v>
@@ -19900,7 +19702,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.653179047183328</v>
+        <v>1.61554405891775</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.107134410280517</v>
@@ -19989,7 +19791,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.653364174143259</v>
+        <v>1.614114217840159</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.945016915481061</v>
@@ -20078,7 +19880,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.667521900313906</v>
+        <v>1.625820399181991</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.71299054002619</v>
@@ -20167,7 +19969,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.671743060303818</v>
+        <v>1.630937161183564</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.371870064502759</v>
@@ -20256,7 +20058,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.670441833885085</v>
+        <v>1.632827660497857</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.208579419299813</v>
@@ -20345,7 +20147,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.678949647256218</v>
+        <v>1.63563764509184</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.264036782006404</v>
@@ -20434,7 +20236,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.6831190017261</v>
+        <v>1.637853844072738</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.089174027985747</v>
@@ -20523,7 +20325,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.676148409735091</v>
+        <v>1.635466736725574</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.331450443978937</v>
@@ -20612,7 +20414,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.66866283888397</v>
+        <v>1.630335897315674</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.088416650694263</v>
@@ -20701,7 +20503,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.670975440838433</v>
+        <v>1.63373980807284</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.833073047404735</v>
@@ -20790,7 +20592,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.687502179853648</v>
+        <v>1.645553301831225</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.992089292669494</v>
@@ -20879,7 +20681,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.669559035881137</v>
+        <v>1.635604126628399</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.734982641710528</v>
@@ -21165,7 +20967,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.483753815258837</v>
+        <v>1.453509183243341</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.423007152874245</v>
@@ -21254,7 +21056,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.4943095520745</v>
+        <v>1.45711880661013</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.442898022465121</v>
@@ -21343,7 +21145,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.500942351270668</v>
+        <v>1.465224519963454</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.441399526838158</v>
@@ -21432,7 +21234,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.509860143781134</v>
+        <v>1.473397041084462</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.381058744678207</v>
@@ -21521,7 +21323,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.528301143364686</v>
+        <v>1.487437571752694</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.5450064254604</v>
@@ -21610,7 +21412,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52033187006066</v>
+        <v>1.483350159288661</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.546373224396507</v>
@@ -21699,7 +21501,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564721917435418</v>
+        <v>1.530621287623989</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.307213051571621</v>
@@ -21788,7 +21590,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.601116150958575</v>
+        <v>1.563274039582508</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.179122439529755</v>
@@ -21877,7 +21679,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.635173851075675</v>
+        <v>1.592970951410995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.976454719684159</v>
@@ -21966,7 +21768,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.655143218805981</v>
+        <v>1.611122930759181</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.044803185719918</v>
@@ -22055,7 +21857,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.621524899997364</v>
+        <v>1.581602217098505</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.846576403559298</v>
@@ -22144,7 +21946,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615564532487051</v>
+        <v>1.58580165324927</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.84951060033176</v>
@@ -22233,7 +22035,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620505792969917</v>
+        <v>1.589936573757451</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.768653808490843</v>
@@ -22322,7 +22124,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622905636151957</v>
+        <v>1.593240720170374</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.706728088966089</v>
@@ -22411,7 +22213,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.651779743826096</v>
+        <v>1.612691785676842</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.74531491789378</v>
@@ -22500,7 +22302,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.668405680783801</v>
+        <v>1.626021365115438</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.740474627571484</v>
@@ -22589,7 +22391,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.664233377750884</v>
+        <v>1.629243221038907</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.695019830856752</v>
@@ -22678,7 +22480,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673920601481459</v>
+        <v>1.637250634130738</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.852419376904097</v>
@@ -22767,7 +22569,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.681771652926865</v>
+        <v>1.644312782691589</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.823203908660441</v>
@@ -22856,7 +22658,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.681324023699591</v>
+        <v>1.643840119435792</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.741134600027677</v>
@@ -22945,7 +22747,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.678749802197863</v>
+        <v>1.647392335742108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.565547621222639</v>
@@ -23034,7 +22836,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.6651069083319</v>
+        <v>1.631350429909032</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.580874480202049</v>
@@ -23123,7 +22925,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.636096955466022</v>
+        <v>1.609262649572042</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.544640727668076</v>
@@ -23212,7 +23014,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.626719088494091</v>
+        <v>1.603942516512644</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.513570335258095</v>
@@ -23301,7 +23103,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.619820707128244</v>
+        <v>1.598013670802311</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.500703165881979</v>
@@ -23390,7 +23192,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.652946000865843</v>
+        <v>1.627638291613214</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.481172057516818</v>
@@ -23479,7 +23281,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.665716977738957</v>
+        <v>1.639056266213957</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.446404473673881</v>
@@ -23568,7 +23370,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.672105675575031</v>
+        <v>1.645952990407775</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.426072776284728</v>
@@ -23657,7 +23459,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.663381273492212</v>
+        <v>1.641667793350192</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.429925281754381</v>
@@ -23746,7 +23548,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.657879387884517</v>
+        <v>1.641122643854233</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.315284267430552</v>
@@ -23835,7 +23637,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.661352318137859</v>
+        <v>1.645948926210404</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.35037123552951</v>
@@ -23924,7 +23726,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.658375143614367</v>
+        <v>1.643218243303597</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.26605314772568</v>
@@ -24013,7 +23815,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.66121523162626</v>
+        <v>1.64666679079567</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.352956342760977</v>
@@ -24102,7 +23904,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.654729235775429</v>
+        <v>1.646187409130598</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.24549173464371</v>
@@ -24191,7 +23993,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.650203801426216</v>
+        <v>1.642525731703526</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.315625222776501</v>
@@ -24280,7 +24082,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.681364227575711</v>
+        <v>1.663643602192021</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.556457473224176</v>
@@ -24369,7 +24171,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.696307143540257</v>
+        <v>1.68468683320116</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.318917192706668</v>
@@ -24458,7 +24260,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.742101461504538</v>
+        <v>1.714852534618301</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.515127982626245</v>
@@ -24547,7 +24349,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.753066077857653</v>
+        <v>1.722427610632067</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.316631335475271</v>
@@ -24636,7 +24438,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.736070206315293</v>
+        <v>1.703394974573585</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.671046034620357</v>
@@ -24725,7 +24527,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.730257134531221</v>
+        <v>1.698475503259907</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.633387860776222</v>
@@ -24814,7 +24616,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.723631434821729</v>
+        <v>1.68682412463402</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.469006362104859</v>
@@ -24903,7 +24705,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.72407158119104</v>
+        <v>1.68844528791164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.794931101789843</v>
@@ -24992,7 +24794,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.727652741668176</v>
+        <v>1.691074550246414</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.811958753102486</v>
@@ -25081,7 +24883,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.715464456429939</v>
+        <v>1.680528758466438</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.375906902722711</v>
@@ -25170,7 +24972,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.700151285014506</v>
+        <v>1.668677613867906</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.252556118489721</v>
@@ -25259,7 +25061,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.708160040572369</v>
+        <v>1.67276164534005</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.772576973572463</v>
@@ -25348,7 +25150,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700129652322912</v>
+        <v>1.668258329057831</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.388130303532769</v>
@@ -25437,7 +25239,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.705233049273581</v>
+        <v>1.669411971326782</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.333441320222121</v>
@@ -25526,7 +25328,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.691221911179516</v>
+        <v>1.655817900687125</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.693209442613354</v>
@@ -25615,7 +25417,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.702698925489545</v>
+        <v>1.663807071571937</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.342947887830258</v>
@@ -25704,7 +25506,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.69216241351589</v>
+        <v>1.64942212401693</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.176052914168487</v>
@@ -25793,7 +25595,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.687037974566671</v>
+        <v>1.642285661497444</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.052345838833897</v>
@@ -25882,7 +25684,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.692473757052644</v>
+        <v>1.646703057224535</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.426135902022567</v>
@@ -25971,7 +25773,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.709994953444873</v>
+        <v>1.664440637534047</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.16830472279071</v>
@@ -26060,7 +25862,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.715146783157774</v>
+        <v>1.666154210125844</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.283813671995707</v>
@@ -26149,7 +25951,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.702123976248083</v>
+        <v>1.661483140265323</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.74594429695113</v>
@@ -26238,7 +26040,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.703180960566274</v>
+        <v>1.66481151582459</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.331566993623571</v>
@@ -26327,7 +26129,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.708098821946813</v>
+        <v>1.670687303715514</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.535380624942102</v>
@@ -26416,7 +26218,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.70933209124928</v>
+        <v>1.67825663929665</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.372911985640692</v>
@@ -26505,7 +26307,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710601281711881</v>
+        <v>1.67303793328464</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.101173212002243</v>
@@ -26594,7 +26396,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.708675493734013</v>
+        <v>1.6746552023149</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.311333333835958</v>
@@ -26683,7 +26485,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.702036593158312</v>
+        <v>1.662273787030685</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.512901659972343</v>
@@ -26772,7 +26574,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.705828522152185</v>
+        <v>1.665734388416502</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.574007749861345</v>
@@ -26861,7 +26663,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.717123469736216</v>
+        <v>1.678092942905519</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.625342683897608</v>
@@ -26950,7 +26752,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.735370059571101</v>
+        <v>1.691653640754875</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.590352273696677</v>
@@ -27039,7 +26841,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.745344083137146</v>
+        <v>1.699911769750145</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.044531647995806</v>
@@ -27128,7 +26930,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.734500463842846</v>
+        <v>1.702722212647941</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.125754017230228</v>
@@ -27217,7 +27019,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.715075475020324</v>
+        <v>1.690608611120129</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.268065515616905</v>
@@ -27306,7 +27108,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.716997283227888</v>
+        <v>1.690332064182275</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.28784740815042</v>
@@ -27395,7 +27197,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.714059101893888</v>
+        <v>1.690229727794969</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.167968825443249</v>
@@ -27484,7 +27286,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.711587127479628</v>
+        <v>1.689224431732414</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.027500584622882</v>
@@ -27573,7 +27375,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.709851489732311</v>
+        <v>1.686046985219239</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.288680078321976</v>
@@ -27662,7 +27464,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.695999025076726</v>
+        <v>1.669875672827886</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.019208063139379</v>
@@ -27751,7 +27553,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.707905295606951</v>
+        <v>1.676721996213807</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.318296904938236</v>
@@ -27840,7 +27642,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.705076919462802</v>
+        <v>1.677562065014954</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.206984990896067</v>
@@ -28126,7 +27928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.517304537873186</v>
+        <v>1.46049333045626</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.698070210819512</v>
@@ -28215,7 +28017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.517116040341961</v>
+        <v>1.456909712970155</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.645316013574028</v>
@@ -28304,7 +28106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519992189088267</v>
+        <v>1.458880996310739</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.908865002809014</v>
@@ -28393,7 +28195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.527917523301888</v>
+        <v>1.467906866356466</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.777472474770887</v>
@@ -28482,7 +28284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544414004107232</v>
+        <v>1.480092566996617</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.934542681757363</v>
@@ -28571,7 +28373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536519720295587</v>
+        <v>1.477607684068345</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.703943793542477</v>
@@ -28660,7 +28462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.559723074861813</v>
+        <v>1.501778729401819</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.45279882086064</v>
@@ -28749,7 +28551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.584021544723874</v>
+        <v>1.527035808028793</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.582789811873061</v>
@@ -28838,7 +28640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.614048618506623</v>
+        <v>1.554683676807817</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.84530284247626</v>
@@ -28927,7 +28729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.638162140906033</v>
+        <v>1.579653544444166</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.914976940666361</v>
@@ -29016,7 +28818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.627450068950293</v>
+        <v>1.570373409054108</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.036881944367344</v>
@@ -29105,7 +28907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.637446558010064</v>
+        <v>1.581893367341442</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.967177880104642</v>
@@ -29194,7 +28996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.652629231277251</v>
+        <v>1.592191124329902</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.985264886934656</v>
@@ -29283,7 +29085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.667570147865331</v>
+        <v>1.608160492012133</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.7869807914682</v>
@@ -29372,7 +29174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.69086490660479</v>
+        <v>1.623287964119769</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.794783000400957</v>
@@ -29461,7 +29263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.703322412599156</v>
+        <v>1.631546342178709</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.857393265248197</v>
@@ -29550,7 +29352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.708111075678316</v>
+        <v>1.642440522173136</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.869999417778722</v>
@@ -29639,7 +29441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.720172933076864</v>
+        <v>1.649889142215706</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.061316975645126</v>
@@ -29728,7 +29530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.727285983126062</v>
+        <v>1.650276373906745</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.996124686604412</v>
@@ -29817,7 +29619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.730453827177159</v>
+        <v>1.653266804334453</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.021385208724626</v>
@@ -29906,7 +29708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.718145478924084</v>
+        <v>1.648657772417308</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.792759359433669</v>
@@ -29995,7 +29797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.703285968418974</v>
+        <v>1.635802955362504</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.756953843536469</v>
@@ -30084,7 +29886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.698372940589776</v>
+        <v>1.638493001581417</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.743693450375754</v>
@@ -30173,7 +29975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.68496661207233</v>
+        <v>1.636393605350396</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.865103629177264</v>
@@ -30262,7 +30064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.669874254368771</v>
+        <v>1.621940735719848</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.632071542179168</v>
@@ -30351,7 +30153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689586942636321</v>
+        <v>1.640722035479176</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.770733801328698</v>
@@ -30440,7 +30242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.692416896716438</v>
+        <v>1.64849150278695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.60798024888172</v>
@@ -30529,7 +30331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.693584591954972</v>
+        <v>1.650930551299488</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.74774460007233</v>
@@ -30618,7 +30420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.684905172353658</v>
+        <v>1.646149343454252</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.635414680777302</v>
@@ -30707,7 +30509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.679416208787856</v>
+        <v>1.645696582450463</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.489884816729668</v>
@@ -30796,7 +30598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.674064668970128</v>
+        <v>1.643008676562499</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.529356367820034</v>
@@ -30885,7 +30687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.670373562813021</v>
+        <v>1.636223068612339</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.376636309995241</v>
@@ -30974,7 +30776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676876746871405</v>
+        <v>1.643682340060773</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.551978387092181</v>
@@ -31063,7 +30865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.674004649225943</v>
+        <v>1.649296564134131</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.379227197592074</v>
@@ -31152,7 +30954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.666079161856159</v>
+        <v>1.646277351531922</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.491415131713195</v>
@@ -31241,7 +31043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.718422401289377</v>
+        <v>1.683575953372498</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.832866214536175</v>
@@ -31330,7 +31132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.728458123935837</v>
+        <v>1.689579542092896</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.690822790990971</v>
@@ -31419,7 +31221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.734203909376717</v>
+        <v>1.683372885188607</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.715548264547796</v>
@@ -31508,7 +31310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.740636175124166</v>
+        <v>1.6784521761792</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.011855093960308</v>
@@ -31597,7 +31399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.737162883821409</v>
+        <v>1.671435231393773</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.586467865496315</v>
@@ -31686,7 +31488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.734028324317861</v>
+        <v>1.671689301962964</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.104751744087266</v>
@@ -31775,7 +31577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.730597779166675</v>
+        <v>1.664723180397935</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.292949702281971</v>
@@ -31864,7 +31666,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.723551567369507</v>
+        <v>1.658410432428958</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.373143615718947</v>
@@ -31953,7 +31755,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.719035417253601</v>
+        <v>1.653730787804558</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.578005882557141</v>
@@ -32042,7 +31844,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.705962959176964</v>
+        <v>1.641119276571723</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.214773468357467</v>
@@ -32131,7 +31933,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.701557243950448</v>
+        <v>1.6363047326487</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.066166032083941</v>
@@ -32220,7 +32022,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.700078349803805</v>
+        <v>1.635026559045632</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.779099304727001</v>
@@ -32309,7 +32111,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.686801643158993</v>
+        <v>1.627113532533215</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.274407993245432</v>
@@ -32398,7 +32200,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.682002698168296</v>
+        <v>1.616329418992911</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.378285128204915</v>
@@ -32487,7 +32289,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.67630844221447</v>
+        <v>1.609986666815737</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.614298543954646</v>
@@ -32576,7 +32378,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.683928793206668</v>
+        <v>1.618324468718054</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.198564452251991</v>
@@ -32665,7 +32467,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.675759222320687</v>
+        <v>1.610155370720849</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.573968493890487</v>
@@ -32754,7 +32556,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.664825189859375</v>
+        <v>1.595400227534197</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.887471348245503</v>
@@ -32843,7 +32645,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.664759770909192</v>
+        <v>1.595135836392052</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.886685210005255</v>
@@ -32932,7 +32734,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.676941544294139</v>
+        <v>1.606033112481831</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.017984536250902</v>
@@ -33021,7 +32823,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.677605584464183</v>
+        <v>1.60029770767809</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.209746675920051</v>
@@ -33110,7 +32912,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.677994111698525</v>
+        <v>1.601997036150306</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.379927485268078</v>
@@ -33199,7 +33001,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.675042243752574</v>
+        <v>1.605360940846178</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.583625186575126</v>
@@ -33288,7 +33090,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.674114564102842</v>
+        <v>1.609582128164532</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.458711801085933</v>
@@ -33377,7 +33179,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.67412013227928</v>
+        <v>1.613954448843445</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.345015256816104</v>
@@ -33466,7 +33268,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.675111348931221</v>
+        <v>1.611999291508676</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.378216552253952</v>
@@ -33555,7 +33357,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.668649365280598</v>
+        <v>1.610804795103221</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.605492409160783</v>
@@ -33644,7 +33446,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.668592802363865</v>
+        <v>1.606602358725249</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.552238628752029</v>
@@ -33733,7 +33535,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.677567456379703</v>
+        <v>1.615660155874656</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.523245489391675</v>
@@ -33822,7 +33624,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.685927544958449</v>
+        <v>1.624721118028893</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.526922253352675</v>
@@ -33911,7 +33713,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.695855631258838</v>
+        <v>1.631322723012867</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.660882643700575</v>
@@ -34000,7 +33802,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.704736744756083</v>
+        <v>1.639342793489445</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.502794571771912</v>
@@ -34089,7 +33891,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.708496946842863</v>
+        <v>1.648919914390762</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.527786943600261</v>
@@ -34178,7 +33980,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.706445318850524</v>
+        <v>1.64934213216543</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.63661313862721</v>
@@ -34267,7 +34069,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.696267643439646</v>
+        <v>1.63931679544813</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.803072461607676</v>
@@ -34356,7 +34158,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.686790076572458</v>
+        <v>1.631027575207763</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.716638394011528</v>
@@ -34445,7 +34247,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.682246466505118</v>
+        <v>1.628401307611919</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.480422593318887</v>
@@ -34534,7 +34336,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.685897004422155</v>
+        <v>1.628176146149477</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.522407254042951</v>
@@ -34623,7 +34425,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.680964241487379</v>
+        <v>1.621958220149589</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.484165256647946</v>
@@ -34712,7 +34514,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.687388160339188</v>
+        <v>1.624452121813955</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.483670965660813</v>
@@ -34801,7 +34603,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.688783896395691</v>
+        <v>1.626926056817362</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.38957640150309</v>
@@ -35087,7 +34889,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.350119871808113</v>
+        <v>1.330600252534191</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.903341832077737</v>
@@ -35176,7 +34978,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.35854360660927</v>
+        <v>1.337503465631929</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.936149340793118</v>
@@ -35265,7 +35067,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.322918542590992</v>
+        <v>1.304873376366851</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.970957967060541</v>
@@ -35354,7 +35156,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.322980800723388</v>
+        <v>1.307365384205141</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.979076016885187</v>
@@ -35443,7 +35245,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.32901166249186</v>
+        <v>1.311451612425905</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.963247154541012</v>
@@ -35532,7 +35334,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.325451209102003</v>
+        <v>1.311520222345347</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.916515447651501</v>
@@ -35621,7 +35423,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.369255311730285</v>
+        <v>1.348024978674265</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.941314051451422</v>
@@ -35710,7 +35512,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.425334710975619</v>
+        <v>1.399355204727026</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.799771192389096</v>
@@ -35799,7 +35601,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.454564485091286</v>
+        <v>1.425382303249231</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.89290410335225</v>
@@ -35888,7 +35690,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.47423837636169</v>
+        <v>1.444053386087304</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.920337811786035</v>
@@ -35977,7 +35779,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.484341860037603</v>
+        <v>1.455082666051398</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.909491834618702</v>
@@ -36066,7 +35868,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.493461966291785</v>
+        <v>1.464542129659362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.901129613895694</v>
@@ -36155,7 +35957,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50295608114328</v>
+        <v>1.470262528542213</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.925838648014185</v>
@@ -36244,7 +36046,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.51476947975349</v>
+        <v>1.487407971993029</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.879683381024725</v>
@@ -36333,7 +36135,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.532497421444774</v>
+        <v>1.501071205258619</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.900045124876385</v>
@@ -36422,7 +36224,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.543042120684107</v>
+        <v>1.510118582676237</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.944776300957981</v>
@@ -36511,7 +36313,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555556974479303</v>
+        <v>1.525644712288759</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.904542067890082</v>
@@ -36600,7 +36402,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.690659767977827</v>
+        <v>1.633881440930844</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.667055963231332</v>
@@ -36689,7 +36491,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.710307620000083</v>
+        <v>1.647116285346025</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.714395670616999</v>
@@ -36778,7 +36580,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.715540643177188</v>
+        <v>1.65655381740913</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.982676016896095</v>
@@ -36867,7 +36669,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.676353757062816</v>
+        <v>1.630583134748727</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.96732332893713</v>
@@ -36956,7 +36758,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667834748220089</v>
+        <v>1.622371273183744</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.980356929440839</v>
@@ -37045,7 +36847,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.635362496812751</v>
+        <v>1.598805642623971</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.995360877802623</v>
@@ -37134,7 +36936,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.620516212786424</v>
+        <v>1.591495851025229</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.95142171060996</v>
@@ -37223,7 +37025,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.61120607987654</v>
+        <v>1.582936270410521</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.97802348818973</v>
@@ -37312,7 +37114,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.609411563651755</v>
+        <v>1.582827981051511</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.947668702903379</v>
@@ -37401,7 +37203,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.617774039021045</v>
+        <v>1.595023929084549</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.958419562720787</v>
@@ -37490,7 +37292,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.617351327920216</v>
+        <v>1.595472149560347</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.921762258917505</v>
@@ -37579,7 +37381,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.615743793470373</v>
+        <v>1.589787571561027</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.914782042583576</v>
@@ -37668,7 +37470,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.610893812176519</v>
+        <v>1.586865567712644</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.916522265130932</v>
@@ -37757,7 +37559,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610529732795218</v>
+        <v>1.587431002388282</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.88934875146817</v>
@@ -37846,7 +37648,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602564506754833</v>
+        <v>1.578118469364463</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.890505682637636</v>
@@ -37935,7 +37737,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.603880015096905</v>
+        <v>1.575190500693622</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.866412248363156</v>
@@ -38024,7 +37826,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.598631842798889</v>
+        <v>1.574116118703785</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.855429668434063</v>
@@ -38113,7 +37915,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596252850344725</v>
+        <v>1.571149414246422</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.880559045962699</v>
@@ -38202,7 +38004,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.648000316311685</v>
+        <v>1.610492724523037</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.978270160647443</v>
@@ -38291,7 +38093,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.647191648367424</v>
+        <v>1.606199307815939</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.167026985500463</v>
@@ -38380,7 +38182,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.734647986753276</v>
+        <v>1.664164501157174</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.534064579715817</v>
@@ -38469,7 +38271,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.748731005308222</v>
+        <v>1.667756337952343</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.30138680389205</v>
@@ -38558,7 +38360,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.751170149604492</v>
+        <v>1.665191869245131</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.146688347066509</v>
@@ -38647,7 +38449,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.751241179265503</v>
+        <v>1.669792876043528</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.237626072177891</v>
@@ -38736,7 +38538,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.737504234357883</v>
+        <v>1.655197202546949</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.14559888019078</v>
@@ -38825,7 +38627,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.734283408065093</v>
+        <v>1.655220338308627</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.125813369679785</v>
@@ -38914,7 +38716,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.740208913730485</v>
+        <v>1.661410445150373</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.369271883030819</v>
@@ -39003,7 +38805,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.732978389136458</v>
+        <v>1.66043998590724</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.327684486692891</v>
@@ -39092,7 +38894,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.723783663727364</v>
+        <v>1.649805952248322</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.108453351234193</v>
@@ -39181,7 +38983,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.70457228618456</v>
+        <v>1.632587794079011</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.456098633862092</v>
@@ -39270,7 +39072,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.686608171690292</v>
+        <v>1.622206980846173</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.193248414878394</v>
@@ -39359,7 +39161,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.685718381773527</v>
+        <v>1.618238011578184</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.307958505399774</v>
@@ -39448,7 +39250,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.67736577705731</v>
+        <v>1.613256724756706</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.168136875856818</v>
@@ -39537,7 +39339,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.670604893672554</v>
+        <v>1.611878060807109</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.702563976490034</v>
@@ -39626,7 +39428,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.646237625052116</v>
+        <v>1.589830891028676</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.703874080586751</v>
@@ -39715,7 +39517,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629869969479884</v>
+        <v>1.57237422890456</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.275503546903745</v>
@@ -39804,7 +39606,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.630254075387285</v>
+        <v>1.574823874582655</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.492901997973731</v>
@@ -39893,7 +39695,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.633876779851544</v>
+        <v>1.576837761959683</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.407051710197863</v>
@@ -39982,7 +39784,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.630226659523893</v>
+        <v>1.571586799340476</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.417368100678165</v>
@@ -40071,7 +39873,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.628653648431307</v>
+        <v>1.568512589279353</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.500358064758096</v>
@@ -40160,7 +39962,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624572559446967</v>
+        <v>1.5657493492399</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.539748451626447</v>
@@ -40249,7 +40051,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621698903456464</v>
+        <v>1.566611803572454</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.517504553849653</v>
@@ -40338,7 +40140,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.618804858760855</v>
+        <v>1.565014307909054</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.531210906739445</v>
@@ -40427,7 +40229,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.596765338138113</v>
+        <v>1.55270054313754</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.519108386600891</v>
@@ -40516,7 +40318,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.549005406006653</v>
+        <v>1.518741772833268</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.562718742491477</v>
@@ -40605,7 +40407,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.55722345531601</v>
+        <v>1.522647799917044</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.499335015476641</v>
@@ -40694,7 +40496,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.563741908966026</v>
+        <v>1.524651545939</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.524933353963693</v>
@@ -40783,7 +40585,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.573406930608261</v>
+        <v>1.533805707872578</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.60992171057732</v>
@@ -40872,7 +40674,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.589073572631468</v>
+        <v>1.547827600921729</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.358633542308878</v>
@@ -40961,7 +40763,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.581740965514656</v>
+        <v>1.538194165785066</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.635102820189915</v>
@@ -41050,7 +40852,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.567809099262477</v>
+        <v>1.534308596321214</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.758712807028291</v>
@@ -41139,7 +40941,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.541514193502135</v>
+        <v>1.517503549659785</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.714007043724382</v>
@@ -41228,7 +41030,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.534715311782167</v>
+        <v>1.506307674621619</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.787419358289096</v>
@@ -41317,7 +41119,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.516331070081442</v>
+        <v>1.49002932543748</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.712799024021152</v>
@@ -41406,7 +41208,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.513983240914112</v>
+        <v>1.488199466447808</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.687643328167184</v>
@@ -41495,7 +41297,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.504869336402676</v>
+        <v>1.478945447530037</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.706596135648371</v>
@@ -41584,7 +41386,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.497045857330117</v>
+        <v>1.468051901931047</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.697822007404641</v>
@@ -41673,7 +41475,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.499905335787001</v>
+        <v>1.472434775559214</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.659475123773821</v>
@@ -41762,7 +41564,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.512584081829407</v>
+        <v>1.481261652115726</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.7279357605118</v>
@@ -42048,7 +41850,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.43344883204344</v>
+        <v>1.420598628725324</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.566152236431113</v>
@@ -42137,7 +41939,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.43081419506031</v>
+        <v>1.416735865786908</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.661823265668757</v>
@@ -42226,7 +42028,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.438205704221334</v>
+        <v>1.422765226925893</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.610046808719818</v>
@@ -42315,7 +42117,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.442932795888688</v>
+        <v>1.425538422061332</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.526542159147196</v>
@@ -42404,7 +42206,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.455028989884767</v>
+        <v>1.435731829307382</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.667508146461425</v>
@@ -42493,7 +42295,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.454271278256594</v>
+        <v>1.439833244072157</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.429618945658458</v>
@@ -42582,7 +42384,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502643562195658</v>
+        <v>1.48789756489585</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.204720179737784</v>
@@ -42671,7 +42473,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.550746756835444</v>
+        <v>1.533323857297254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.247867420004666</v>
@@ -42760,7 +42562,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.584217607968949</v>
+        <v>1.567181291954001</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.630955751433094</v>
@@ -42849,7 +42651,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.60358686230598</v>
+        <v>1.58606352844237</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.603046275297632</v>
@@ -42938,7 +42740,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.598440616713682</v>
+        <v>1.57819059083211</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.447653707367473</v>
@@ -43027,7 +42829,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.597814263372537</v>
+        <v>1.580034497403993</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.531771314346754</v>
@@ -43116,7 +42918,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.618162622106186</v>
+        <v>1.599554018468522</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.488493447208499</v>
@@ -43205,7 +43007,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.637330746592172</v>
+        <v>1.612284036219374</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.2656108774497</v>
@@ -43294,7 +43096,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.682529996262052</v>
+        <v>1.644351564563051</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.145887906911504</v>
@@ -43383,7 +43185,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.699469071954312</v>
+        <v>1.655145310965827</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.214557503210029</v>
@@ -43472,7 +43274,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.699250176584757</v>
+        <v>1.66331969655363</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.22205481691742</v>
@@ -43561,7 +43363,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.706235317263376</v>
+        <v>1.669950055424679</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.329632534991898</v>
@@ -43650,7 +43452,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.719227347863059</v>
+        <v>1.680925480485128</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.17156687202355</v>
@@ -43739,7 +43541,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.718656518067085</v>
+        <v>1.680325812429525</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.296363630559211</v>
@@ -43828,7 +43630,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.701937651745352</v>
+        <v>1.664503896240978</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.338938065977759</v>
@@ -43917,7 +43719,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.665435099454688</v>
+        <v>1.640305823586404</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.399907130162867</v>
@@ -44006,7 +43808,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.650689097368936</v>
+        <v>1.628375326152469</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.343911547914562</v>
@@ -44095,7 +43897,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.642995118080151</v>
+        <v>1.623624682679313</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.330029061417493</v>
@@ -44184,7 +43986,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.630461036553417</v>
+        <v>1.610995612174034</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.279268417277491</v>
@@ -44273,7 +44075,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.641788289986414</v>
+        <v>1.623176290801794</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.319377352598712</v>
@@ -44362,7 +44164,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613374742590613</v>
+        <v>1.606681410485398</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.249601728537753</v>
@@ -44451,7 +44253,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.608365323472698</v>
+        <v>1.599173886362924</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.309599037708388</v>
@@ -44540,7 +44342,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.583984501904476</v>
+        <v>1.585411496329703</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.254343661899357</v>
@@ -44629,7 +44431,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.569718130523592</v>
+        <v>1.578887096642786</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.178920456159037</v>
@@ -44718,7 +44520,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.570416769406003</v>
+        <v>1.584398797687504</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.140836543708845</v>
@@ -44807,7 +44609,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.562457983241379</v>
+        <v>1.576460606602113</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.130808011953276</v>
@@ -44896,7 +44698,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.556265226711446</v>
+        <v>1.572022778492345</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.131169517649868</v>
@@ -44985,7 +44787,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.551355033555971</v>
+        <v>1.572359365164386</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.105790201146114</v>
@@ -45074,7 +44876,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.544565013362813</v>
+        <v>1.566606432267969</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.222885125623587</v>
@@ -45163,7 +44965,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578579279570839</v>
+        <v>1.603379376730882</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.316172171200611</v>
@@ -45252,7 +45054,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.611157402510744</v>
+        <v>1.635170666881729</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.597142660957915</v>
@@ -45341,7 +45143,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.618515142893426</v>
+        <v>1.640486031047427</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.602308834984666</v>
@@ -45430,7 +45232,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615737987834724</v>
+        <v>1.639853563913654</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.534265304778228</v>
@@ -45519,7 +45321,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.610114840921412</v>
+        <v>1.631051502986726</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.532275540851815</v>
@@ -45608,7 +45410,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.605559900870204</v>
+        <v>1.623603636332925</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.140777582688479</v>
@@ -45697,7 +45499,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.63905969367905</v>
+        <v>1.653380491266664</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.12951442823889</v>
@@ -45786,7 +45588,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.641434986077452</v>
+        <v>1.66028396717365</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.944731619089594</v>
@@ -45875,7 +45677,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.653948680926622</v>
+        <v>1.665755467923052</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.302408943856838</v>
@@ -45964,7 +45766,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.649362370311544</v>
+        <v>1.664196851001478</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.344985421879077</v>
@@ -46053,7 +45855,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631657137917084</v>
+        <v>1.64580707153449</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.949333892575564</v>
@@ -46142,7 +45944,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.634651216459239</v>
+        <v>1.649302614826447</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.050344748851735</v>
@@ -46231,7 +46033,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.640204832911009</v>
+        <v>1.656388880460659</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.241415699202697</v>
@@ -46320,7 +46122,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.635613436531946</v>
+        <v>1.655277076238893</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.289936050239431</v>
@@ -46409,7 +46211,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.626379837232678</v>
+        <v>1.644735575296595</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.337963308029423</v>
@@ -46498,7 +46300,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.635688642599993</v>
+        <v>1.653063672818347</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.213893050266078</v>
@@ -46587,7 +46389,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.603604676426284</v>
+        <v>1.609453996966474</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.495739367593647</v>
@@ -46676,7 +46478,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.558205589256574</v>
+        <v>1.580654137591549</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.410181219666851</v>
@@ -46765,7 +46567,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.562776063052889</v>
+        <v>1.584855923215349</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.50430803764684</v>
@@ -46854,7 +46656,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.569221103674413</v>
+        <v>1.593714890766349</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.396471370915536</v>
@@ -46943,7 +46745,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.585468998134442</v>
+        <v>1.599579151689294</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.355716143053829</v>
@@ -47032,7 +46834,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.579983840745797</v>
+        <v>1.596066619337558</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.471614696327066</v>
@@ -47121,7 +46923,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.595707091712663</v>
+        <v>1.609590845650186</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.486238817703741</v>
@@ -47210,7 +47012,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594894077047723</v>
+        <v>1.609238977188187</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.406483961709359</v>
@@ -47299,7 +47101,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.599545262491962</v>
+        <v>1.61152665537359</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.364957827837627</v>
@@ -47388,7 +47190,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.608445838583276</v>
+        <v>1.616559640254957</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.312640427742727</v>
@@ -47477,7 +47279,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.612412483204397</v>
+        <v>1.617325048129848</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.393452993900236</v>
@@ -47566,7 +47368,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.601788823129832</v>
+        <v>1.601715007019315</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.472927519130733</v>
@@ -47655,7 +47457,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.608144052020165</v>
+        <v>1.608168605182302</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.390622960777426</v>
@@ -47744,7 +47546,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.614793398237992</v>
+        <v>1.615351743938549</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.449103978099883</v>
@@ -47833,7 +47635,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.623498813846892</v>
+        <v>1.61893271430978</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.399300363468094</v>
@@ -47922,7 +47724,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.676490005749257</v>
+        <v>1.65948973172612</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.201497192491993</v>
@@ -48011,7 +47813,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.6947509142503</v>
+        <v>1.68056413870694</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.083663434705352</v>
@@ -48100,7 +47902,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.680455262956791</v>
+        <v>1.663265507063099</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.093545503286195</v>
@@ -48189,7 +47991,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.678928334776047</v>
+        <v>1.656056003165414</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.122914507841203</v>
@@ -48278,7 +48080,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.688682508783335</v>
+        <v>1.662982255761135</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.960893883558564</v>
@@ -48367,7 +48169,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.679716540114071</v>
+        <v>1.653946629235854</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.916823247472204</v>
@@ -48456,7 +48258,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.672976620489287</v>
+        <v>1.649170596534794</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.01298522194874</v>
@@ -48545,7 +48347,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.673777655731018</v>
+        <v>1.645524096864811</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.984681406123512</v>
@@ -48634,7 +48436,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.692234324472925</v>
+        <v>1.662356160487004</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.830778107901896</v>
@@ -48723,7 +48525,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.689370559353452</v>
+        <v>1.660289199527561</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.043976385985814</v>
